--- a/biology/Zoologie/Ammodytidae/Ammodytidae.xlsx
+++ b/biology/Zoologie/Ammodytidae/Ammodytidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ammodytidae sont une famille de poissons téléostéens de l’ordre des Perciformes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Présents dans l'Océans Indien, Atlantique et Pacifique. Petites écailles cycloïdes. Généralement sans nageoires pelviennes, présentes chez Embolichthys. Ligne latérale le long de la dorsale. Sans dents. Nageoire dorsale longue ; rayons mous généralement 40-65. Rayons banchiostégaux 7. Membranes branchiales séparées. Longueur maximale de 30 cm. »
@@ -543,9 +557,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon FishBase la famille comprend 7 genres et 34 espèces[1] (35 espèces selon le catalogue Eschmeyer des poissons - ECoF[2] et 35 également selon WoRMS[3]) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon FishBase la famille comprend 7 genres et 34 espèces (35 espèces selon le catalogue Eschmeyer des poissons - ECoF et 35 également selon WoRMS) :
 genre Ammodytes Linnaeus, 1758
 Ammodytes americanus  DeKay, 1842
 Ammodytes dubius  Reinhardt, 1837
@@ -588,7 +604,7 @@
 Protammodytes brachistos  Ida, Sirimontaporn &amp; Monkolprasit, 1994
 Protammodytes sarisa  (Robins &amp; Böhlke, 1970)
 Protammodytes ventrolineatus Randall &amp; Ida, 2014
-Selon Catalogue of Life                                   (10 juillet 2014)[4], ITIS      (10 juillet 2014)[5] et World Register of Marine Species                               (18 mars 2024)[6] :
+Selon Catalogue of Life                                   (10 juillet 2014), ITIS      (10 juillet 2014) et World Register of Marine Species                               (18 mars 2024) :
 genre Ammodytes Linnaeus, 1758
 genre Ammodytoides Duncker &amp; Mohr, 1939
 genre Bleekeria Günther, 1862
@@ -596,7 +612,7 @@
 genre Hyperoplus Günther, 1862
 genre Lepidammodytes Ida, Sirimontaporn &amp; Monkolprasit, 1994
 genre Protammodytes Ida, Sirimontaporn &amp; Monkolprasit, 1994
-Selon Paleobiology Database                   (10 juillet 2014)[7] :
+Selon Paleobiology Database                   (10 juillet 2014) :
 genre Ammodytes</t>
         </is>
       </c>
@@ -625,9 +641,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ammodytidae Bonaparte, 1835[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ammodytidae Bonaparte, 1835.
 </t>
         </is>
       </c>
